--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1788141.957338889</v>
+        <v>1782420.345371003</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>287.8888439977529</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>44.64130008435379</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>320.797539652425</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>197.9240804051652</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>20.94454531968554</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>27.77238941128203</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.5609025698961</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.726971031682526</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>114.2656173771025</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,7 +1703,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247745</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>103.1340411809968</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74.75769145492316</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>62.4702174478277</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>187.4330611973848</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>200.6419170682683</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>77.31354443380475</v>
+        <v>126.0614777669726</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>157.8588687154356</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>163.689844124971</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3240,13 +3240,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>83.92159280918611</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>145.8111705386696</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="H40" t="n">
-        <v>40.64497115397565</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>18.26879610203982</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>220.2858449881296</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2420.850691555458</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2420.850691555458</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2089.787804211887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1737.019148941773</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.476704221264</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5993065148977</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>450.2477713451374</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>450.2477713451374</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>450.2477713451374</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>450.2477713451374</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.2477713451374</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W8" t="n">
-        <v>2356.285436519557</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.819678258477</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>723.3542659926137</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>723.3542659926137</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>573.2376265802779</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>573.2376265802779</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>723.3542659926137</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>723.3542659926137</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>723.3542659926137</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>723.3542659926137</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>723.3542659926137</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>723.3542659926137</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>723.3542659926137</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>723.3542659926137</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>723.3542659926137</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807097</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750057</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.513008862232</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1866.513008862232</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972662</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5354,31 +5354,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.0738540998319</v>
+        <v>368.6730165490254</v>
       </c>
       <c r="C16" t="n">
-        <v>171.0738540998319</v>
+        <v>199.7368336211185</v>
       </c>
       <c r="D16" t="n">
-        <v>171.0738540998319</v>
+        <v>199.7368336211185</v>
       </c>
       <c r="E16" t="n">
-        <v>171.0738540998319</v>
+        <v>199.7368336211185</v>
       </c>
       <c r="F16" t="n">
-        <v>171.0738540998319</v>
+        <v>199.7368336211185</v>
       </c>
       <c r="G16" t="n">
-        <v>171.0738540998319</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>171.0738540998319</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>909.27315417834</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413794</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433621</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998319</v>
+        <v>550.3214813792652</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001577</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,16 +5624,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.87788887324</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>402.87788887324</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>402.87788887324</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>402.87788887324</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>255.9879413753296</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>255.9879413753296</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1866.513008862231</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1577.410141987875</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.725653781988</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1033.308483745027</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>805.3189328470098</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>584.5263537034797</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5758,46 +5758,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C22" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1767.017141662901</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U22" t="n">
-        <v>1250.391906159323</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V22" t="n">
-        <v>1250.391906159323</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W22" t="n">
-        <v>1250.391906159323</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X22" t="n">
-        <v>1022.402355261306</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y22" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
@@ -5998,37 +5998,37 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2536.15366264131</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3082.932479700092</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3585.904950579429</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6080,28 +6080,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1956.343466104704</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1751.093193329805</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.103642431788</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,25 +6226,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>351.3014367967911</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>685.1208104866375</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1549.639626139992</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2528.189928969821</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>3507.942201196468</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075804</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188665</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.613856788637</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C28" t="n">
-        <v>245.6776738607301</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1878.248976777628</v>
+        <v>1547.492298661813</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.146109903272</v>
+        <v>1547.492298661813</v>
       </c>
       <c r="V28" t="n">
-        <v>1334.461621697385</v>
+        <v>1547.492298661813</v>
       </c>
       <c r="W28" t="n">
-        <v>1045.044451660424</v>
+        <v>1258.075128624852</v>
       </c>
       <c r="X28" t="n">
-        <v>817.0549007624069</v>
+        <v>1258.075128624852</v>
       </c>
       <c r="Y28" t="n">
-        <v>596.2623216188767</v>
+        <v>1037.282549481322</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>260.9043113423046</v>
+        <v>719.7238607267858</v>
       </c>
       <c r="C31" t="n">
-        <v>260.9043113423046</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D31" t="n">
-        <v>260.9043113423046</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E31" t="n">
-        <v>260.9043113423046</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>260.9043113423046</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839441</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>901.3723255570255</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6709,22 +6709,22 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6888,10 +6888,10 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
         <v>1015.408799357142</v>
@@ -6916,73 +6916,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1036.495701195956</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7128,19 +7128,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>1956.343466104704</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W37" t="n">
-        <v>1666.926296067743</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="X37" t="n">
-        <v>1438.936745169726</v>
+        <v>1184.566560126443</v>
       </c>
       <c r="Y37" t="n">
-        <v>1218.144166026196</v>
+        <v>1037.282549481322</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>720.69789701373</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C40" t="n">
-        <v>551.7617140858231</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D40" t="n">
-        <v>401.6450746734873</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E40" t="n">
-        <v>401.6450746734873</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F40" t="n">
-        <v>401.6450746734873</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G40" t="n">
-        <v>233.9422380482063</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.556111024461</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>1123.1389409875</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y40" t="n">
-        <v>902.3463618439697</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7420,43 +7420,43 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7602,19 +7602,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,67 +7627,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7730,7 +7730,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.200663232024</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.3002584566048</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C46" t="n">
-        <v>390.3640755286979</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E46" t="n">
         <v>242.4509819463048</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1733.83251157124</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1479.148023365353</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>1189.730853328392</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>961.7413024303746</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>740.9487232868445</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400226</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>146.0713065388582</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400261</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704173</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,16 +9646,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>216.9877583263329</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>67.53663776704161</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>139.3563597571374</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10357,22 +10357,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>251.7982062376315</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,16 +10600,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>29.61882225792147</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>172.2573809594885</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>62.89176707803139</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>21.59472895491496</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>82.28479746649307</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.335964134057093</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>85.56992113734455</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="26">
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>142.2354048423645</v>
+        <v>93.48747150919658</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>9.387952383192271</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.335964134057178</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>83.32522828944172</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>72.7734828134252</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>91.26811680410417</v>
       </c>
       <c r="H40" t="n">
-        <v>104.1100437603451</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>128.1651665445293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>161.5631840798975</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>65.92599321748332</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>894406.6252187748</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.322953078</v>
       </c>
       <c r="F2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.322953078</v>
       </c>
       <c r="G2" t="n">
         <v>516206.3229530782</v>
       </c>
       <c r="H2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="I2" t="n">
         <v>516206.322953078</v>
@@ -26340,22 +26340,22 @@
         <v>516206.3229530781</v>
       </c>
       <c r="K2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="L2" t="n">
         <v>516206.3229530783</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>516206.3229530782</v>
       </c>
-      <c r="M2" t="n">
-        <v>516206.3229530783</v>
-      </c>
       <c r="N2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="O2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="P2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530784</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709186</v>
@@ -26447,16 +26447,16 @@
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709187</v>
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26499,16 +26499,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331356.4032585992</v>
+        <v>-331356.4032585996</v>
       </c>
       <c r="C6" t="n">
-        <v>258611.4759559451</v>
+        <v>258611.4759559449</v>
       </c>
       <c r="D6" t="n">
-        <v>258611.4759559456</v>
+        <v>258611.4759559455</v>
       </c>
       <c r="E6" t="n">
-        <v>-329174.2172911339</v>
+        <v>-329846.1721933922</v>
       </c>
       <c r="F6" t="n">
-        <v>398203.196702273</v>
+        <v>397531.2418000143</v>
       </c>
       <c r="G6" t="n">
-        <v>398203.1967022726</v>
+        <v>397531.2418000147</v>
       </c>
       <c r="H6" t="n">
-        <v>398203.1967022727</v>
+        <v>397531.2418000148</v>
       </c>
       <c r="I6" t="n">
-        <v>398203.1967022725</v>
+        <v>397531.2418000145</v>
       </c>
       <c r="J6" t="n">
-        <v>221779.9775096797</v>
+        <v>221108.0226074219</v>
       </c>
       <c r="K6" t="n">
-        <v>398203.1967022727</v>
+        <v>397531.2418000147</v>
       </c>
       <c r="L6" t="n">
-        <v>398203.1967022727</v>
+        <v>397531.2418000148</v>
       </c>
       <c r="M6" t="n">
-        <v>268560.8818633279</v>
+        <v>267888.9269610701</v>
       </c>
       <c r="N6" t="n">
-        <v>398203.1967022726</v>
+        <v>397531.2418000147</v>
       </c>
       <c r="O6" t="n">
-        <v>398203.1967022726</v>
+        <v>397531.2418000147</v>
       </c>
       <c r="P6" t="n">
-        <v>398203.1967022726</v>
+        <v>397531.2418000149</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>94.04152607450885</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>171.807020273304</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>78.00254480831998</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>28.44342906498804</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>188.3138582508884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>265.3373289222922</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>26.7060131635297</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>240.6800661475169</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.39577892323177</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33991,10 +33991,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282419</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>698.3731419517696</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282451</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552608</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36366,16 +36366,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7497445457047</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>258.3236387357542</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>390.1506645608569</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -37077,22 +37077,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>804.1000416505429</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37320,16 +37320,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>502.5482327048853</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>568.5399380881482</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37803,7 +37803,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1782420.345371003</v>
+        <v>1785825.836495453</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>287.8888439977529</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>322.8156897822619</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>208.2793294336578</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>93.22825809980094</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>320.797539652425</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.964778066175074</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>27.77238941128203</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>15.07437110675873</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>103.1340411809968</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>114.4746605491556</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>176.7697821123584</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>18.26879610203983</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>187.4330611973848</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.40943379163122</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>188.9340614830318</v>
       </c>
       <c r="T28" t="n">
-        <v>126.0614777669726</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>157.8588687154356</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>60.22224884004328</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.8111705386696</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>74.75769145492406</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.26879610203982</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>923.1150787952338</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>923.1150787952338</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>923.1150787952338</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.7458231623355</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1825.581288436855</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1456.618771496444</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1098.353072889693</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>712.564820291449</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>301.5789155018414</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2373.111172177389</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1999.645413916309</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.506081940498</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
         <v>667.8624625746712</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>871.6756726293982</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>485.8874200311539</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>74.90151524154635</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>60.97811118013725</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>60.97811118013725</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2669.096172420968</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2669.096172420968</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2669.096172420968</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2669.096172420968</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2338.033285077397</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="9">
@@ -4886,10 +4886,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5135,7 +5135,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208122</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838516</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858343</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423041</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888352</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5363,34 +5363,34 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>368.6730165490254</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="C16" t="n">
-        <v>199.7368336211185</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D16" t="n">
-        <v>199.7368336211185</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>199.7368336211185</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>199.7368336211185</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5475,13 +5475,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>999.1036114208126</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>771.1140605227953</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.3214813792652</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5521,31 +5521,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>1897.676284104189</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,22 +5624,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="20">
@@ -5731,25 +5731,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5758,40 +5758,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,64 +5807,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1767.017141662901</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1545.250526232427</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1256.147659358071</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1001.463171152184</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>712.0460011152229</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>484.0564502172056</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6065,37 +6065,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>302.4735561031423</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>154.5604625207492</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>154.5604625207492</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,7 +6211,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6232,22 +6232,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2504.619866888352</v>
+        <v>2439.038619608515</v>
       </c>
       <c r="N26" t="n">
-        <v>3051.398683947134</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O26" t="n">
-        <v>3554.371154826471</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P26" t="n">
-        <v>4267.726242273417</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6262,16 +6262,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>855.6340846510827</v>
+        <v>658.619281250059</v>
       </c>
       <c r="C28" t="n">
-        <v>686.6979017231758</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D28" t="n">
-        <v>536.5812623108401</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E28" t="n">
-        <v>388.668168728447</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1765.500979758207</v>
       </c>
       <c r="T28" t="n">
-        <v>1547.492298661813</v>
+        <v>1543.734364327733</v>
       </c>
       <c r="U28" t="n">
-        <v>1547.492298661813</v>
+        <v>1543.734364327733</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.492298661813</v>
+        <v>1289.049876121846</v>
       </c>
       <c r="W28" t="n">
-        <v>1258.075128624852</v>
+        <v>1289.049876121846</v>
       </c>
       <c r="X28" t="n">
-        <v>1258.075128624852</v>
+        <v>1061.060325223829</v>
       </c>
       <c r="Y28" t="n">
-        <v>1037.282549481322</v>
+        <v>840.2677460802987</v>
       </c>
     </row>
     <row r="29">
@@ -6472,10 +6472,10 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.7238607267858</v>
+        <v>623.3575047549123</v>
       </c>
       <c r="C31" t="n">
-        <v>560.2704579839216</v>
+        <v>454.4213218270054</v>
       </c>
       <c r="D31" t="n">
-        <v>410.1538185715858</v>
+        <v>304.3046824146696</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>156.3915888322765</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839441</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570255</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="X31" t="n">
-        <v>901.3723255570255</v>
+        <v>1025.798548728682</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.3723255570255</v>
+        <v>805.005969585152</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.310259422546</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N32" t="n">
-        <v>2812.369300656583</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O32" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,13 +6885,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
         <v>1015.408799357142</v>
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3195.001976422504</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3697.97444730184</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>855.6340846510827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839441</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.556111024461</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.556111024461</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>1184.566560126443</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1037.282549481322</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,52 +7174,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622687</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294612</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171.0738540998329</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C40" t="n">
-        <v>171.0738540998329</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D40" t="n">
-        <v>171.0738540998329</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E40" t="n">
-        <v>171.0738540998329</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F40" t="n">
-        <v>171.0738540998329</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839441</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0738540998329</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,28 +7411,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7602,19 +7602,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
         <v>794.200663232024</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7839,19 +7839,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476853</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>146.0713065388582</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9169,19 +9169,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>297.8289162490798</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>351.4175304294029</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>139.3563597571374</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,13 +10120,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>251.7982062376315</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>246.454569480844</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,16 +10600,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P35" t="n">
-        <v>103.7862464855135</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>344.7025836476828</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>344.7025836476837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>164.7576090751786</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>62.89176707803139</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>105.0742887270136</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>48.93987327667872</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>147.7570121569884</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>2.335964134057093</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>107.616374467397</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.8349638484100694</v>
       </c>
       <c r="T28" t="n">
-        <v>93.48747150919658</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>9.387952383192271</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>85.19879918288797</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.7734828134252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>91.26811680410417</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>206.1202045604618</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>161.5631840798975</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="F2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="G2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="H2" t="n">
         <v>516206.3229530783</v>
       </c>
       <c r="I2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="J2" t="n">
         <v>516206.322953078</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="L2" t="n">
         <v>516206.3229530781</v>
-      </c>
-      <c r="K2" t="n">
-        <v>516206.3229530781</v>
-      </c>
-      <c r="L2" t="n">
-        <v>516206.3229530783</v>
       </c>
       <c r="M2" t="n">
         <v>516206.3229530782</v>
       </c>
       <c r="N2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="O2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="P2" t="n">
-        <v>516206.3229530784</v>
+        <v>516206.3229530783</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709187</v>
@@ -26481,16 +26481,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26499,7 +26499,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331356.4032585996</v>
+        <v>-331356.4032585995</v>
       </c>
       <c r="C6" t="n">
-        <v>258611.4759559449</v>
+        <v>258611.4759559456</v>
       </c>
       <c r="D6" t="n">
-        <v>258611.4759559455</v>
+        <v>258611.4759559456</v>
       </c>
       <c r="E6" t="n">
-        <v>-329846.1721933922</v>
+        <v>-329241.4127813596</v>
       </c>
       <c r="F6" t="n">
-        <v>397531.2418000143</v>
+        <v>398136.0012120471</v>
       </c>
       <c r="G6" t="n">
-        <v>397531.2418000147</v>
+        <v>398136.0012120469</v>
       </c>
       <c r="H6" t="n">
-        <v>397531.2418000148</v>
+        <v>398136.0012120469</v>
       </c>
       <c r="I6" t="n">
-        <v>397531.2418000145</v>
+        <v>398136.0012120469</v>
       </c>
       <c r="J6" t="n">
-        <v>221108.0226074219</v>
+        <v>221712.7820194538</v>
       </c>
       <c r="K6" t="n">
-        <v>397531.2418000147</v>
+        <v>398136.0012120471</v>
       </c>
       <c r="L6" t="n">
-        <v>397531.2418000148</v>
+        <v>398136.0012120468</v>
       </c>
       <c r="M6" t="n">
-        <v>267888.9269610701</v>
+        <v>268493.6863731022</v>
       </c>
       <c r="N6" t="n">
-        <v>397531.2418000147</v>
+        <v>398136.0012120469</v>
       </c>
       <c r="O6" t="n">
-        <v>397531.2418000147</v>
+        <v>398136.0012120469</v>
       </c>
       <c r="P6" t="n">
-        <v>397531.2418000149</v>
+        <v>398136.0012120469</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94.04152607450885</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>84.06035595944951</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>78.00254480831998</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>320.555911920994</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>28.44342906498804</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>144.9665381786862</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>26.7060131635297</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.83478528866308</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34219,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359043</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>698.3731419517696</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35889,19 +35889,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>836.7500320793066</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>890.3386462596296</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>390.1506645608569</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>740.8875257003384</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>804.1000416505429</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>754.5075703690632</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37320,16 +37320,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P35" t="n">
-        <v>502.5482327048853</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>800.292698040015</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>897.0044190605952</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
